--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ ВСЕ ПРЕДПРИЯТИЯ ОПРО_LAR (Средний LAR(Det))(02.09.2015 0-03-04).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ ВСЕ ПРЕДПРИЯТИЯ ОПРО_LAR (Средний LAR(Det))(02.09.2015 0-03-04).xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ОРПО (Средний LAR(Det))\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,13 +157,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +442,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -484,22 +485,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>3.2670807130140234E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>3.9820992052971423E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>7.2491799183111664E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1.0973109157840947E-4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1.3457559757515793E-4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>2.443066891535674E-4</v>
       </c>
     </row>
@@ -507,22 +508,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>3.0514215143167309E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>4.5543324612746758E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>7.6057539755914071E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1.0225369208002507E-4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1.3767318693527563E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.3992687901530071E-4</v>
       </c>
     </row>
@@ -530,22 +531,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.7601076124632865E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>4.822811351221061E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>7.5829189636843469E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>9.485566753258769E-5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1.4532563583214699E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.4018130336473468E-4</v>
       </c>
     </row>
@@ -553,22 +554,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.5111790835938481E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>4.3869055688184386E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>6.8980846524122861E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>8.848033578086254E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.3210886185910993E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.2058919763997246E-4</v>
       </c>
     </row>
@@ -576,22 +577,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.2998850031631325E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>4.5791239660510359E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>6.8790089692141677E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>8.5124347005675395E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1.4789003571430821E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.3301438271998361E-4</v>
       </c>
     </row>
@@ -599,22 +600,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.8898549075159743E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>4.5689227610367656E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>6.4587776685527399E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>7.0012561363696013E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1.6231006364162543E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>2.3232262500532145E-4</v>
       </c>
     </row>
@@ -622,22 +623,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.3379175454160212E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>4.4038424538372624E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>5.7417599992532839E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>4.6357056412442544E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1.626738615381266E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>2.0903091795056915E-4</v>
       </c>
     </row>
@@ -645,22 +646,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>8.287218440201532E-6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>3.639790513083609E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>4.4685123571037622E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>2.7843546647673102E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>9.4294317860096238E-5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.2213786450776933E-4</v>
       </c>
     </row>
@@ -668,22 +669,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>7.0067198893454393E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>2.8418831026644463E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>3.5425550915989905E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>2.6502251880405061E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>7.0942713368055165E-5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>9.7444965248460233E-5</v>
       </c>
     </row>
@@ -691,22 +692,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>4.7196873548773207E-6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>1.9975864257751568E-5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>2.4695551612628889E-5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>1.4833605000354263E-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>5.1306275024532519E-5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>6.6139880024886782E-5</v>
       </c>
     </row>
@@ -714,22 +715,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>2.3317661236157835E-6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>1.2035902252715495E-5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>1.4367668376331279E-5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>7.670153749515548E-6</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>3.0578096065051921E-5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>3.8248249814567467E-5</v>
       </c>
     </row>
@@ -737,22 +738,22 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.1080000000000001E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>4.3279999999999999E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>6.436E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>7.3960000000000003E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>1.3753999999999999E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>2.1149999999999999E-4</v>
       </c>
     </row>
@@ -762,10 +763,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -796,22 +799,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2.6542099006504104E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>5.5905251320191974E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>8.244735032669607E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>8.054608129485866E-5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1.5970007021130637E-4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>2.4024615150616504E-4</v>
       </c>
     </row>
@@ -819,22 +822,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2.1569978303824865E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>5.4477082295256771E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>7.6047060599081633E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>5.9527755803865295E-5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1.6649761170236345E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.2602536750622874E-4</v>
       </c>
     </row>
@@ -842,22 +845,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.1497581463680608E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>6.3875626864967941E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>8.5373208328648546E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>5.2534131194254884E-5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1.6921747023076686E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.2175160142502175E-4</v>
       </c>
     </row>
@@ -865,22 +868,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.1091150554908877E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>5.5298386201376541E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>7.6389536756285418E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>4.9361276437120709E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.7035001851666953E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.1971129495379024E-4</v>
       </c>
     </row>
@@ -888,22 +891,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.169325497415604E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>6.0921810933222172E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>8.2615065907378209E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>5.2400744091894945E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1.7656804953589448E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.2896879362778943E-4</v>
       </c>
     </row>
@@ -911,22 +914,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.7519749104309094E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>7.0186172471237496E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>8.770592157554659E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>5.0556444505224236E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>2.4523731419054309E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>2.9579375869576732E-4</v>
       </c>
     </row>
@@ -934,22 +937,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.5410052449261121E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>8.9530514349273261E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>1.0494056679853438E-4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>5.0366621856023732E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>3.17750336516399E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>3.6811695837242275E-4</v>
       </c>
     </row>
@@ -957,22 +960,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.0583915296806272E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>5.8559733012194291E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>6.9143648309000558E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>3.8233343327026427E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>1.4982008564191728E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.8805342896894371E-4</v>
       </c>
     </row>
@@ -980,22 +983,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>7.1057456691606618E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>5.2779282918487348E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>5.988502858764801E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>2.4974316516517648E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>1.3069891062994575E-4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1.5567322714646339E-4</v>
       </c>
     </row>
@@ -1003,22 +1006,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1.0364874636299394E-5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>4.1528930849724923E-5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>5.1893805486024315E-5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>5.5816593063839597E-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>1.0271583230817288E-4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>1.5853242537201248E-4</v>
       </c>
     </row>
@@ -1026,22 +1029,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>9.2306713584331202E-6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>3.032815912761065E-5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>3.9558830486043768E-5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>1.7114814598000937E-5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>6.4412410390314687E-5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>8.1527224988315624E-5</v>
       </c>
     </row>
@@ -1049,22 +1052,22 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>1.7710000000000002E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>6.6769999999999999E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>8.4480000000000004E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>4.918E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>2.1059E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>2.5976999999999999E-4</v>
       </c>
     </row>
